--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_024.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_024.xlsx
@@ -31,321 +31,321 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor power response</t>
-  </si>
-  <si>
-    <t>(295024EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) RHR/LPCI</t>
+    <t>(295021AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Feeding and bleeding reactor vessel</t>
+  </si>
+  <si>
+    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
+  </si>
+  <si>
+    <t>(295004AK2.03) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295018AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Isolation of non-essential heat loads</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA1.01) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295001AA2.10) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Recirculation system/RPV differential temperatures</t>
+  </si>
+  <si>
+    <t>(700000AK2.01) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Motors</t>
+  </si>
+  <si>
+    <t>(295019AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Leak isolation</t>
+  </si>
+  <si>
+    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(600000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm reset panel</t>
   </si>
   <si>
     <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
   </si>
   <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Shutdown conditions</t>
-  </si>
-  <si>
-    <t>(295038EK2.10) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
-  </si>
-  <si>
-    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire’s extent of potential operational damage to plant equipment</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295025EK2.05) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295001AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Idle loop/reverse flow</t>
-  </si>
-  <si>
-    <t>(295031EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure coolant injection (RHR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295016AK2.14) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Cooling water systems</t>
-  </si>
-  <si>
-    <t>(295023AK2.05) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295005AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Main generator trip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295018AA1.01) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Backup systems </t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295012AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.8 to 41.10) Drywell pressure </t>
-  </si>
-  <si>
-    <t>(295007AK2.05) Knowledge of the relationship between the (APE 7) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
-  </si>
-  <si>
-    <t>(295034EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295017AA1.11) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) PCIS/NSSSS </t>
-  </si>
-  <si>
-    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262001A3.01) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker tripping</t>
-  </si>
-  <si>
-    <t>(261000A2.04) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High train moisture content</t>
-  </si>
-  <si>
-    <t>(259002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) TDRFP speed</t>
-  </si>
-  <si>
-    <t>(215003K4.02) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM signals</t>
+    <t>(295031EK2.08) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Automatic depressurization system</t>
+  </si>
+  <si>
+    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295013AA1.03) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
+  </si>
+  <si>
+    <t>(295022AA2.03) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD mechanism temperatures</t>
+  </si>
+  <si>
+    <t>(295010AK2.06) Knowledge of the relationship between the (APE 10) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Primary containment and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295017AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) Power reduction</t>
+  </si>
+  <si>
+    <t>(295029EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Venting the suppression pool (Mark I containment)</t>
+  </si>
+  <si>
+    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(209001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(223002A3.01) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) System indicating lights and alarms</t>
+  </si>
+  <si>
+    <t>(264000K4.04) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Field flashing</t>
+  </si>
+  <si>
+    <t>(239002K3.04) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization system</t>
+  </si>
+  <si>
+    <t>(217000A2.04) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC power loss</t>
+  </si>
+  <si>
+    <t>(212000A4.14) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215004A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM, rod block, and period alarm and trip setpoints</t>
+  </si>
+  <si>
+    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
+  </si>
+  <si>
+    <t>(262001K2.02) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) AC breaker control power</t>
+  </si>
+  <si>
+    <t>(215003K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Detectors</t>
+  </si>
+  <si>
+    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(205000A3.01) Ability to monitor automatic operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(203000K4.03) Knowledge of (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Pump minimum flow protection</t>
+  </si>
+  <si>
+    <t>(262002K3.15) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine generator and auxiliary systems</t>
+  </si>
+  <si>
+    <t>(218000A2.04) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS failure to initiate</t>
+  </si>
+  <si>
+    <t>(215005A4.03) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) APRM back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291002K1.03) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Effects of gas or steam on liquid flow rate indications (erroneous reading)</t>
+  </si>
+  <si>
+    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(211000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.5 / 45.3) Effects of the moderator temperature coefficient of reactivity on boron</t>
   </si>
   <si>
     <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
   </si>
   <si>
-    <t>(203000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Vortex limits</t>
-  </si>
-  <si>
-    <t>(205000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Service water</t>
-  </si>
-  <si>
-    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
-  </si>
-  <si>
-    <t>(223002K3.26) Knowledge of the effect that a loss or malfunction of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(217000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (291006K1.03) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Basic heat transfer in a heat exchanger</t>
-  </si>
-  <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(212000A2.01) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) RPS motor-generator set failure</t>
-  </si>
-  <si>
-    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(209002K4.03) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of pump overheating</t>
-  </si>
-  <si>
-    <t>(264000K2.01) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Starting air compressor</t>
-  </si>
-  <si>
-    <t>(218000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(215005K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Trip units</t>
-  </si>
-  <si>
-    <t>(239002A4.04) Ability to manually operate and/or monitor the (SF3 SRV) SAFETY RELIEF VALVES in the control room: (CFR: 41.7 / 45.5 to 45.8) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(262002K3.22) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(211000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel internals</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(262001A3.06) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Tap changers</t>
-  </si>
-  <si>
-    <t>(261000A2.09) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Instrument air system malfunction</t>
-  </si>
-  <si>
-    <t>(259002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor feedwater flow</t>
-  </si>
-  <si>
-    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(201005K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) and the following systems: (CFR: 41.2 to 41.7 / 45.8) Control rod and drive mechanism system</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (291004K1.06) PUMPS (CFR: 41.3) (CENTRIFUGAL) Need for net positive suction head (NPSH); effects of loss of suction</t>
-  </si>
-  <si>
-    <t>(226001A3.07) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Pump start</t>
-  </si>
-  <si>
-    <t>(259001A2.12) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Heater drain pump trip</t>
-  </si>
-  <si>
-    <t>(510001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Circulating water temperatures</t>
-  </si>
-  <si>
-    <t>(230000K4.03) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Diverting flow from the RPV to the containment during accident conditions</t>
-  </si>
-  <si>
-    <t>(202001K2.07) (SF1, SF4 RS) RECIRCULATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) VFD cooling water pumps</t>
-  </si>
-  <si>
-    <t>(268000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 RW) RADWASTE SYSTEM: (CFR: 41.5 / 45.3) Dilution flow for releases</t>
-  </si>
-  <si>
-    <t>(216000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.7 / 45.7) Transmitters</t>
-  </si>
-  <si>
-    <t>(256000A4.04) Ability to manually operate and/or monitor the (SF2 CDS) CONDENSATE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valves</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+    <t>(259002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Reactor pressure/temperature input (for water level input compensation)</t>
+  </si>
+  <si>
+    <t>(209001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(223002A3.02) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Valve closures</t>
+  </si>
+  <si>
+    <t>(264000K4.10) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic start logic</t>
+  </si>
+  <si>
+    <t>(239002K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure control</t>
+  </si>
+  <si>
+    <t>(510001K2.01) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System pumps</t>
+  </si>
+  <si>
+    <t>(215001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.7 / 45.7) Primary containment isolation system (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(239001K1.26) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Safety relief valves</t>
+  </si>
+  <si>
+    <t>(201003K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(226001K4.07) Knowledge of (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of water hammer</t>
+  </si>
+  <si>
+    <t>(223001K3.08) Knowledge of the effect that a loss or malfunction of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Pneumatically operated valves internal to containment/drywell</t>
+  </si>
+  <si>
+    <t>(204000A2.04) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
+  </si>
+  <si>
+    <t>(201001A4.04) Ability to manually operate and/or monitor the (SF1 CRDH) CRD HYDRAULIC SYSTEM in the control room: (CFR: 41.5-7 / 41.9 / 41.10 / 45.1-6 / 45.8 / 45.12-13) Drive water header pressure control valve</t>
+  </si>
+  <si>
+    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(219000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.5 / 45.5) Suppression chamber air temperature</t>
+  </si>
+  <si>
+    <t>(233000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.5 / 45.3) Refueling operations</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293009K1.17) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Define critical power</t>
-  </si>
-  <si>
-    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295002AA2.04) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Offgas system flow</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(205000A2.12) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Inadequate system flow</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(286000A2.12) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low diesel fuel supply</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(233000A2.10) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Refueling bellows seal high flow</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292005K1.05) CONTROL RODS (CFR: 41.1) Define rod density</t>
+  </si>
+  <si>
+    <t>(292008K1.24) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe the parameters to be monitored and controlled during rod pattern exchanges</t>
+  </si>
+  <si>
+    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
+  </si>
+  <si>
+    <t>(293007K1.12) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define percent reactor power</t>
+  </si>
+  <si>
+    <t>(293008K1.08) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Describe departure from nucleate boiling</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
+  </si>
+  <si>
+    <t>(295032EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Cause of high area temperature</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
+  </si>
+  <si>
+    <t>(217000A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC power loss</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A2.14) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(400000A2.06) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Component cooling water system heat exchanger tube leak</t>
+  </si>
+  <si>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(286000A2.05) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fire protection pump trips</t>
+  </si>
+  <si>
+    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
@@ -355,15 +355,15 @@
     <t>K4</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295024</t>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>600000</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
+    <t>295023</t>
   </si>
   <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295007</t>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295032</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295017</t>
-  </si>
-  <si>
     <t>295035</t>
   </si>
   <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295033</t>
+    <t>272000</t>
   </si>
   <si>
     <t>286000</t>
   </si>
   <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>233000</t>
+    <t>271000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2024,7 +2024,7 @@
         <v>3.3</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2041,7 +2041,7 @@
         <v>3.4</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D80" t="s">
         <v>107</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2432,7 +2432,7 @@
         <v>3.9</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
